--- a/Project_BeTheDemon/Assets/ExcelFiles/StringInGame.xlsx
+++ b/Project_BeTheDemon/Assets/ExcelFiles/StringInGame.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="635">
   <si>
     <t>Info</t>
   </si>
@@ -928,6 +928,51 @@
     <t>Confirm</t>
   </si>
   <si>
+    <t>tellquit</t>
+  </si>
+  <si>
+    <t>게임을 종료하시겠습니까?</t>
+  </si>
+  <si>
+    <t>Do you want to exit the game?</t>
+  </si>
+  <si>
+    <t>cbno</t>
+  </si>
+  <si>
+    <t>아니요</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>cbquit</t>
+  </si>
+  <si>
+    <t>종료</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>cblkor</t>
+  </si>
+  <si>
+    <t>한글</t>
+  </si>
+  <si>
+    <t>Korean</t>
+  </si>
+  <si>
+    <t>cbleng</t>
+  </si>
+  <si>
+    <t>영어</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
     <t>cbreset</t>
   </si>
   <si>
@@ -946,6 +991,24 @@
     <t>Cancel</t>
   </si>
   <si>
+    <t>cbload</t>
+  </si>
+  <si>
+    <t>로딩 중....</t>
+  </si>
+  <si>
+    <t>Loading....</t>
+  </si>
+  <si>
+    <t>cbgstart</t>
+  </si>
+  <si>
+    <t>게임 시작</t>
+  </si>
+  <si>
+    <t>Game Start</t>
+  </si>
+  <si>
     <t>cbgod</t>
   </si>
   <si>
@@ -1828,40 +1891,37 @@
     <t>Increase Double Attack Critical Rate (%)</t>
   </si>
   <si>
+    <t>Name</t>
+  </si>
+  <si>
     <t>DelayTime</t>
   </si>
   <si>
-    <t>Idle</t>
-  </si>
-  <si>
-    <t>Run</t>
-  </si>
-  <si>
-    <t>Dash</t>
-  </si>
-  <si>
-    <t>TakeHit</t>
-  </si>
-  <si>
-    <t>Death</t>
-  </si>
-  <si>
-    <t>Hurt</t>
+    <t>PosX</t>
+  </si>
+  <si>
+    <t>PosY</t>
+  </si>
+  <si>
+    <t>OffsetX</t>
+  </si>
+  <si>
+    <t>OffsetY</t>
   </si>
   <si>
     <t>Hero</t>
   </si>
   <si>
+    <t>Lizard</t>
+  </si>
+  <si>
+    <t>Medusa</t>
+  </si>
+  <si>
+    <t>Jinn</t>
+  </si>
+  <si>
     <t>Dragon</t>
-  </si>
-  <si>
-    <t>Jinn</t>
-  </si>
-  <si>
-    <t>Lizard</t>
-  </si>
-  <si>
-    <t>Medusa</t>
   </si>
 </sst>
 </file>
@@ -5923,12 +5983,14 @@
         <v>83.0</v>
       </c>
       <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
+      <c r="E85" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="F85" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
@@ -5963,12 +6025,14 @@
         <v>84.0</v>
       </c>
       <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
+      <c r="E86" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="F86" s="4" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -6003,12 +6067,14 @@
         <v>85.0</v>
       </c>
       <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
+      <c r="E87" s="4" t="s">
+        <v>318</v>
+      </c>
       <c r="F87" s="4" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -6043,12 +6109,14 @@
         <v>86.0</v>
       </c>
       <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
+      <c r="E88" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="F88" s="4" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -6084,13 +6152,13 @@
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -6125,12 +6193,14 @@
         <v>88.0</v>
       </c>
       <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
+      <c r="E90" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="F90" s="4" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -6165,12 +6235,14 @@
         <v>89.0</v>
       </c>
       <c r="D91" s="4"/>
-      <c r="E91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>330</v>
+      </c>
       <c r="F91" s="4" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -6207,10 +6279,10 @@
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -6247,10 +6319,10 @@
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -6284,12 +6356,13 @@
       <c r="C94" s="2">
         <v>92.0</v>
       </c>
+      <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -6323,14 +6396,13 @@
       <c r="C95" s="2">
         <v>93.0</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>333</v>
-      </c>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
       <c r="F95" s="4" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -6364,12 +6436,15 @@
       <c r="C96" s="2">
         <v>94.0</v>
       </c>
-      <c r="E96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="F96" s="4" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -6395,25 +6470,21 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B97" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C97" s="2">
         <v>95.0</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="F97" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G97" s="6" t="s">
-        <v>341</v>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -6439,23 +6510,21 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B98" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C98" s="2">
         <v>96.0</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="G98" s="6" t="s">
-        <v>344</v>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -6481,23 +6550,21 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B99" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C99" s="2">
         <v>97.0</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="G99" s="6" t="s">
-        <v>347</v>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -6523,23 +6590,21 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B100" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C100" s="2">
         <v>98.0</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="G100" s="6" t="s">
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4" t="s">
         <v>350</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -6565,21 +6630,19 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B101" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C101" s="2">
         <v>99.0</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="F101" s="6" t="s">
+      <c r="E101" s="4"/>
+      <c r="F101" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G101" s="4" t="s">
         <v>353</v>
       </c>
       <c r="H101" s="3"/>
@@ -6606,25 +6669,22 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B102" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C102" s="2">
         <v>100.0</v>
       </c>
-      <c r="D102" s="6" t="s">
+      <c r="E102" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E102" s="6" t="s">
+      <c r="F102" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="G102" s="4" t="s">
         <v>356</v>
-      </c>
-      <c r="G102" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
@@ -6650,25 +6710,20 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B103" s="2">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C103" s="2">
         <v>101.0</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E103" s="6" t="s">
+      <c r="E103" s="4"/>
+      <c r="F103" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="G103" s="4" t="s">
         <v>358</v>
-      </c>
-      <c r="F103" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
@@ -6703,13 +6758,15 @@
         <v>102.0</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="E104" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="F104" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="G104" s="11" t="s">
+      <c r="G104" s="6" t="s">
         <v>362</v>
       </c>
       <c r="H104" s="3"/>
@@ -6745,14 +6802,14 @@
         <v>103.0</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E105" s="7"/>
-      <c r="F105" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="G105" s="11" t="s">
+      <c r="E105" s="6"/>
+      <c r="F105" s="6" t="s">
         <v>364</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>365</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
@@ -6787,14 +6844,14 @@
         <v>104.0</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E106" s="7"/>
-      <c r="F106" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G106" s="11" t="s">
         <v>366</v>
+      </c>
+      <c r="E106" s="6"/>
+      <c r="F106" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
@@ -6829,14 +6886,14 @@
         <v>105.0</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="G107" s="11" t="s">
-        <v>368</v>
+        <v>369</v>
+      </c>
+      <c r="E107" s="6"/>
+      <c r="F107" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="G107" s="6" t="s">
+        <v>371</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
@@ -6871,14 +6928,13 @@
         <v>106.0</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>374</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
@@ -6913,14 +6969,16 @@
         <v>107.0</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E109" s="7"/>
-      <c r="F109" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G109" s="11" t="s">
-        <v>372</v>
+        <v>375</v>
+      </c>
+      <c r="E109" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
@@ -6955,14 +7013,16 @@
         <v>108.0</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="E110" s="7"/>
+        <v>359</v>
+      </c>
+      <c r="E110" s="6" t="s">
+        <v>379</v>
+      </c>
       <c r="F110" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G110" s="11" t="s">
-        <v>374</v>
+        <v>380</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
@@ -6997,14 +7057,14 @@
         <v>109.0</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E111" s="7"/>
       <c r="F111" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="G111" s="11" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
@@ -7039,14 +7099,14 @@
         <v>110.0</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="E112" s="7"/>
       <c r="F112" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="G112" s="11" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
@@ -7081,14 +7141,14 @@
         <v>111.0</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="E113" s="7"/>
       <c r="F113" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>380</v>
+        <v>386</v>
+      </c>
+      <c r="G113" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
@@ -7123,14 +7183,14 @@
         <v>112.0</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E114" s="11"/>
-      <c r="F114" s="11" t="s">
-        <v>381</v>
+        <v>359</v>
+      </c>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7" t="s">
+        <v>388</v>
       </c>
       <c r="G114" s="11" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
@@ -7165,14 +7225,14 @@
         <v>113.0</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="G115" s="11" t="s">
-        <v>384</v>
+        <v>363</v>
+      </c>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G115" s="7" t="s">
+        <v>391</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
@@ -7207,14 +7267,14 @@
         <v>114.0</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11" t="s">
-        <v>385</v>
+        <v>363</v>
+      </c>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7" t="s">
+        <v>392</v>
       </c>
       <c r="G116" s="11" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
@@ -7249,14 +7309,14 @@
         <v>115.0</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="E117" s="11"/>
-      <c r="F117" s="11" t="s">
-        <v>387</v>
+        <v>363</v>
+      </c>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7" t="s">
+        <v>394</v>
       </c>
       <c r="G117" s="11" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
@@ -7291,14 +7351,14 @@
         <v>116.0</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="E118" s="7"/>
       <c r="F118" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>390</v>
+        <v>396</v>
+      </c>
+      <c r="G118" s="11" t="s">
+        <v>397</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
@@ -7333,14 +7393,14 @@
         <v>117.0</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E119" s="11"/>
-      <c r="F119" s="11" t="s">
-        <v>391</v>
+        <v>363</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
@@ -7375,14 +7435,14 @@
         <v>118.0</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>394</v>
+        <v>366</v>
+      </c>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
@@ -7417,14 +7477,14 @@
         <v>119.0</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="E121" s="11"/>
       <c r="F121" s="11" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="G121" s="11" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
@@ -7459,14 +7519,14 @@
         <v>120.0</v>
       </c>
       <c r="D122" s="6" t="s">
-        <v>348</v>
+        <v>366</v>
       </c>
       <c r="E122" s="11"/>
       <c r="F122" s="11" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="G122" s="11" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
@@ -7501,14 +7561,14 @@
         <v>121.0</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>400</v>
+        <v>366</v>
+      </c>
+      <c r="E123" s="11"/>
+      <c r="F123" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="G123" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
@@ -7543,14 +7603,14 @@
         <v>122.0</v>
       </c>
       <c r="D124" s="6" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="E124" s="11"/>
       <c r="F124" s="11" t="s">
-        <v>401</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
+      </c>
+      <c r="G124" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
@@ -7585,14 +7645,14 @@
         <v>123.0</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="E125" s="11"/>
-      <c r="F125" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>404</v>
+        <v>369</v>
+      </c>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="G125" s="7" t="s">
+        <v>411</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
@@ -7627,14 +7687,14 @@
         <v>124.0</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="E126" s="11"/>
       <c r="F126" s="11" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="G126" s="11" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
@@ -7669,14 +7729,14 @@
         <v>125.0</v>
       </c>
       <c r="D127" s="6" t="s">
-        <v>351</v>
+        <v>369</v>
       </c>
       <c r="E127" s="11"/>
       <c r="F127" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
+      </c>
+      <c r="G127" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
@@ -7711,14 +7771,14 @@
         <v>126.0</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E128" s="1"/>
-      <c r="F128" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="G128" s="1" t="s">
-        <v>410</v>
+        <v>369</v>
+      </c>
+      <c r="E128" s="11"/>
+      <c r="F128" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="G128" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
@@ -7753,14 +7813,14 @@
         <v>127.0</v>
       </c>
       <c r="D129" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E129" s="1"/>
-      <c r="F129" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="G129" s="1" t="s">
-        <v>412</v>
+        <v>369</v>
+      </c>
+      <c r="E129" s="11"/>
+      <c r="F129" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="G129" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
@@ -7795,14 +7855,14 @@
         <v>128.0</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>414</v>
+        <v>372</v>
+      </c>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="G130" s="7" t="s">
+        <v>421</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
@@ -7837,14 +7897,14 @@
         <v>129.0</v>
       </c>
       <c r="D131" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E131" s="1"/>
-      <c r="F131" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>416</v>
+        <v>372</v>
+      </c>
+      <c r="E131" s="11"/>
+      <c r="F131" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>423</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
@@ -7879,16 +7939,14 @@
         <v>130.0</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="F132" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="G132" s="1" t="s">
-        <v>419</v>
+        <v>372</v>
+      </c>
+      <c r="E132" s="11"/>
+      <c r="F132" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="G132" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
@@ -7913,6 +7971,25 @@
       <c r="AB132" s="3"/>
     </row>
     <row r="133">
+      <c r="A133" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B133" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C133" s="2">
+        <v>131.0</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E133" s="11"/>
+      <c r="F133" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="G133" s="11" t="s">
+        <v>427</v>
+      </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="3"/>
@@ -7936,6 +8013,25 @@
       <c r="AB133" s="3"/>
     </row>
     <row r="134">
+      <c r="A134" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B134" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C134" s="2">
+        <v>132.0</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="E134" s="11"/>
+      <c r="F134" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="G134" s="7" t="s">
+        <v>429</v>
+      </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="3"/>
@@ -7959,6 +8055,25 @@
       <c r="AB134" s="3"/>
     </row>
     <row r="135">
+      <c r="A135" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B135" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C135" s="2">
+        <v>133.0</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>431</v>
+      </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
@@ -7982,6 +8097,25 @@
       <c r="AB135" s="3"/>
     </row>
     <row r="136">
+      <c r="A136" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B136" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C136" s="2">
+        <v>134.0</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>433</v>
+      </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="3"/>
@@ -8005,6 +8139,25 @@
       <c r="AB136" s="3"/>
     </row>
     <row r="137">
+      <c r="A137" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B137" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C137" s="2">
+        <v>135.0</v>
+      </c>
+      <c r="D137" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>435</v>
+      </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="3"/>
@@ -8028,6 +8181,25 @@
       <c r="AB137" s="3"/>
     </row>
     <row r="138">
+      <c r="A138" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B138" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C138" s="2">
+        <v>136.0</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="3"/>
@@ -8051,6 +8223,27 @@
       <c r="AB138" s="3"/>
     </row>
     <row r="139">
+      <c r="A139" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B139" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="C139" s="2">
+        <v>137.0</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>440</v>
+      </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
@@ -8074,6 +8267,7 @@
       <c r="AB139" s="3"/>
     </row>
     <row r="140">
+      <c r="C140" s="2"/>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
@@ -8488,13 +8682,6 @@
       <c r="AB157" s="3"/>
     </row>
     <row r="158">
-      <c r="A158" s="3"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="12"/>
-      <c r="D158" s="3"/>
-      <c r="E158" s="3"/>
-      <c r="F158" s="3"/>
-      <c r="G158" s="3"/>
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="3"/>
@@ -8518,13 +8705,6 @@
       <c r="AB158" s="3"/>
     </row>
     <row r="159">
-      <c r="A159" s="3"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="12"/>
-      <c r="D159" s="3"/>
-      <c r="E159" s="3"/>
-      <c r="F159" s="3"/>
-      <c r="G159" s="3"/>
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="3"/>
@@ -8548,13 +8728,6 @@
       <c r="AB159" s="3"/>
     </row>
     <row r="160">
-      <c r="A160" s="3"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="12"/>
-      <c r="D160" s="3"/>
-      <c r="E160" s="3"/>
-      <c r="F160" s="3"/>
-      <c r="G160" s="3"/>
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="3"/>
@@ -8578,13 +8751,6 @@
       <c r="AB160" s="3"/>
     </row>
     <row r="161">
-      <c r="A161" s="3"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="12"/>
-      <c r="D161" s="3"/>
-      <c r="E161" s="3"/>
-      <c r="F161" s="3"/>
-      <c r="G161" s="3"/>
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="3"/>
@@ -8608,13 +8774,6 @@
       <c r="AB161" s="3"/>
     </row>
     <row r="162">
-      <c r="A162" s="3"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="12"/>
-      <c r="D162" s="3"/>
-      <c r="E162" s="3"/>
-      <c r="F162" s="3"/>
-      <c r="G162" s="3"/>
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="3"/>
@@ -8638,13 +8797,6 @@
       <c r="AB162" s="3"/>
     </row>
     <row r="163">
-      <c r="A163" s="3"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="3"/>
-      <c r="E163" s="3"/>
-      <c r="F163" s="3"/>
-      <c r="G163" s="3"/>
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="3"/>
@@ -8668,13 +8820,6 @@
       <c r="AB163" s="3"/>
     </row>
     <row r="164">
-      <c r="A164" s="3"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="12"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
-      <c r="F164" s="3"/>
-      <c r="G164" s="3"/>
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="3"/>
@@ -34317,6 +34462,216 @@
       <c r="AA1018" s="3"/>
       <c r="AB1018" s="3"/>
     </row>
+    <row r="1019">
+      <c r="A1019" s="3"/>
+      <c r="B1019" s="12"/>
+      <c r="C1019" s="12"/>
+      <c r="D1019" s="3"/>
+      <c r="E1019" s="3"/>
+      <c r="F1019" s="3"/>
+      <c r="G1019" s="3"/>
+      <c r="H1019" s="3"/>
+      <c r="I1019" s="3"/>
+      <c r="J1019" s="3"/>
+      <c r="K1019" s="3"/>
+      <c r="L1019" s="3"/>
+      <c r="M1019" s="3"/>
+      <c r="N1019" s="3"/>
+      <c r="O1019" s="3"/>
+      <c r="P1019" s="3"/>
+      <c r="Q1019" s="3"/>
+      <c r="R1019" s="3"/>
+      <c r="S1019" s="3"/>
+      <c r="T1019" s="3"/>
+      <c r="U1019" s="3"/>
+      <c r="V1019" s="3"/>
+      <c r="W1019" s="3"/>
+      <c r="X1019" s="3"/>
+      <c r="Y1019" s="3"/>
+      <c r="Z1019" s="3"/>
+      <c r="AA1019" s="3"/>
+      <c r="AB1019" s="3"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="3"/>
+      <c r="B1020" s="12"/>
+      <c r="C1020" s="12"/>
+      <c r="D1020" s="3"/>
+      <c r="E1020" s="3"/>
+      <c r="F1020" s="3"/>
+      <c r="G1020" s="3"/>
+      <c r="H1020" s="3"/>
+      <c r="I1020" s="3"/>
+      <c r="J1020" s="3"/>
+      <c r="K1020" s="3"/>
+      <c r="L1020" s="3"/>
+      <c r="M1020" s="3"/>
+      <c r="N1020" s="3"/>
+      <c r="O1020" s="3"/>
+      <c r="P1020" s="3"/>
+      <c r="Q1020" s="3"/>
+      <c r="R1020" s="3"/>
+      <c r="S1020" s="3"/>
+      <c r="T1020" s="3"/>
+      <c r="U1020" s="3"/>
+      <c r="V1020" s="3"/>
+      <c r="W1020" s="3"/>
+      <c r="X1020" s="3"/>
+      <c r="Y1020" s="3"/>
+      <c r="Z1020" s="3"/>
+      <c r="AA1020" s="3"/>
+      <c r="AB1020" s="3"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="3"/>
+      <c r="B1021" s="12"/>
+      <c r="C1021" s="12"/>
+      <c r="D1021" s="3"/>
+      <c r="E1021" s="3"/>
+      <c r="F1021" s="3"/>
+      <c r="G1021" s="3"/>
+      <c r="H1021" s="3"/>
+      <c r="I1021" s="3"/>
+      <c r="J1021" s="3"/>
+      <c r="K1021" s="3"/>
+      <c r="L1021" s="3"/>
+      <c r="M1021" s="3"/>
+      <c r="N1021" s="3"/>
+      <c r="O1021" s="3"/>
+      <c r="P1021" s="3"/>
+      <c r="Q1021" s="3"/>
+      <c r="R1021" s="3"/>
+      <c r="S1021" s="3"/>
+      <c r="T1021" s="3"/>
+      <c r="U1021" s="3"/>
+      <c r="V1021" s="3"/>
+      <c r="W1021" s="3"/>
+      <c r="X1021" s="3"/>
+      <c r="Y1021" s="3"/>
+      <c r="Z1021" s="3"/>
+      <c r="AA1021" s="3"/>
+      <c r="AB1021" s="3"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="3"/>
+      <c r="B1022" s="12"/>
+      <c r="C1022" s="12"/>
+      <c r="D1022" s="3"/>
+      <c r="E1022" s="3"/>
+      <c r="F1022" s="3"/>
+      <c r="G1022" s="3"/>
+      <c r="H1022" s="3"/>
+      <c r="I1022" s="3"/>
+      <c r="J1022" s="3"/>
+      <c r="K1022" s="3"/>
+      <c r="L1022" s="3"/>
+      <c r="M1022" s="3"/>
+      <c r="N1022" s="3"/>
+      <c r="O1022" s="3"/>
+      <c r="P1022" s="3"/>
+      <c r="Q1022" s="3"/>
+      <c r="R1022" s="3"/>
+      <c r="S1022" s="3"/>
+      <c r="T1022" s="3"/>
+      <c r="U1022" s="3"/>
+      <c r="V1022" s="3"/>
+      <c r="W1022" s="3"/>
+      <c r="X1022" s="3"/>
+      <c r="Y1022" s="3"/>
+      <c r="Z1022" s="3"/>
+      <c r="AA1022" s="3"/>
+      <c r="AB1022" s="3"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="3"/>
+      <c r="B1023" s="12"/>
+      <c r="C1023" s="12"/>
+      <c r="D1023" s="3"/>
+      <c r="E1023" s="3"/>
+      <c r="F1023" s="3"/>
+      <c r="G1023" s="3"/>
+      <c r="H1023" s="3"/>
+      <c r="I1023" s="3"/>
+      <c r="J1023" s="3"/>
+      <c r="K1023" s="3"/>
+      <c r="L1023" s="3"/>
+      <c r="M1023" s="3"/>
+      <c r="N1023" s="3"/>
+      <c r="O1023" s="3"/>
+      <c r="P1023" s="3"/>
+      <c r="Q1023" s="3"/>
+      <c r="R1023" s="3"/>
+      <c r="S1023" s="3"/>
+      <c r="T1023" s="3"/>
+      <c r="U1023" s="3"/>
+      <c r="V1023" s="3"/>
+      <c r="W1023" s="3"/>
+      <c r="X1023" s="3"/>
+      <c r="Y1023" s="3"/>
+      <c r="Z1023" s="3"/>
+      <c r="AA1023" s="3"/>
+      <c r="AB1023" s="3"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="3"/>
+      <c r="B1024" s="12"/>
+      <c r="C1024" s="12"/>
+      <c r="D1024" s="3"/>
+      <c r="E1024" s="3"/>
+      <c r="F1024" s="3"/>
+      <c r="G1024" s="3"/>
+      <c r="H1024" s="3"/>
+      <c r="I1024" s="3"/>
+      <c r="J1024" s="3"/>
+      <c r="K1024" s="3"/>
+      <c r="L1024" s="3"/>
+      <c r="M1024" s="3"/>
+      <c r="N1024" s="3"/>
+      <c r="O1024" s="3"/>
+      <c r="P1024" s="3"/>
+      <c r="Q1024" s="3"/>
+      <c r="R1024" s="3"/>
+      <c r="S1024" s="3"/>
+      <c r="T1024" s="3"/>
+      <c r="U1024" s="3"/>
+      <c r="V1024" s="3"/>
+      <c r="W1024" s="3"/>
+      <c r="X1024" s="3"/>
+      <c r="Y1024" s="3"/>
+      <c r="Z1024" s="3"/>
+      <c r="AA1024" s="3"/>
+      <c r="AB1024" s="3"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="3"/>
+      <c r="B1025" s="12"/>
+      <c r="C1025" s="12"/>
+      <c r="D1025" s="3"/>
+      <c r="E1025" s="3"/>
+      <c r="F1025" s="3"/>
+      <c r="G1025" s="3"/>
+      <c r="H1025" s="3"/>
+      <c r="I1025" s="3"/>
+      <c r="J1025" s="3"/>
+      <c r="K1025" s="3"/>
+      <c r="L1025" s="3"/>
+      <c r="M1025" s="3"/>
+      <c r="N1025" s="3"/>
+      <c r="O1025" s="3"/>
+      <c r="P1025" s="3"/>
+      <c r="Q1025" s="3"/>
+      <c r="R1025" s="3"/>
+      <c r="S1025" s="3"/>
+      <c r="T1025" s="3"/>
+      <c r="U1025" s="3"/>
+      <c r="V1025" s="3"/>
+      <c r="W1025" s="3"/>
+      <c r="X1025" s="3"/>
+      <c r="Y1025" s="3"/>
+      <c r="Z1025" s="3"/>
+      <c r="AA1025" s="3"/>
+      <c r="AB1025" s="3"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -34348,82 +34703,82 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="B2" s="13">
         <v>0.0</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="B3" s="13">
         <v>1.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="B4" s="13">
         <v>2.0</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="B5" s="13">
         <v>3.0</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="B6" s="13">
         <v>4.0</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
       <c r="B7" s="13">
         <v>5.0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8">
@@ -37438,158 +37793,158 @@
         <v>3</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B2" s="13">
         <v>0.0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="D2" s="13">
         <v>5.0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B3" s="13">
         <v>1.0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="D3" s="13">
         <v>5.0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B4" s="13">
         <v>2.0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="D4" s="13">
         <v>5.0</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>450</v>
+        <v>471</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>453</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B5" s="13">
         <v>3.0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>454</v>
+        <v>475</v>
       </c>
       <c r="D5" s="13">
         <v>5.0</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>455</v>
+        <v>476</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>456</v>
+        <v>477</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>458</v>
+        <v>479</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B6" s="13">
         <v>4.0</v>
@@ -37601,27 +37956,27 @@
         <v>1.0</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>463</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B7" s="13">
         <v>5.0</v>
@@ -37633,27 +37988,27 @@
         <v>1.0</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B8" s="13">
         <v>6.0</v>
@@ -37665,27 +38020,27 @@
         <v>1.0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>468</v>
+        <v>489</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>469</v>
+        <v>490</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>471</v>
+        <v>492</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B9" s="13">
         <v>7.0</v>
@@ -37697,27 +38052,27 @@
         <v>5.0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B10" s="13">
         <v>8.0</v>
@@ -37729,27 +38084,27 @@
         <v>7.5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>476</v>
+        <v>497</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B11" s="13">
         <v>9.0</v>
@@ -37761,27 +38116,27 @@
         <v>5.0</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>481</v>
+        <v>502</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>482</v>
+        <v>503</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>483</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B12" s="13">
         <v>10.0</v>
@@ -37793,27 +38148,27 @@
         <v>5.0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>484</v>
+        <v>505</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>485</v>
+        <v>506</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>486</v>
+        <v>507</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>487</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B13" s="13">
         <v>11.0</v>
@@ -37825,27 +38180,27 @@
         <v>5.0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>488</v>
+        <v>509</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>489</v>
+        <v>510</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>490</v>
+        <v>511</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>491</v>
+        <v>512</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B14" s="13">
         <v>12.0</v>
@@ -37857,27 +38212,27 @@
         <v>2.5</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>492</v>
+        <v>513</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>493</v>
+        <v>514</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>494</v>
+        <v>515</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>495</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B15" s="13">
         <v>13.0</v>
@@ -37889,27 +38244,27 @@
         <v>2.5</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>496</v>
+        <v>517</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>461</v>
+        <v>482</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>498</v>
+        <v>519</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B16" s="13">
         <v>14.0</v>
@@ -37921,27 +38276,27 @@
         <v>3.75</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>500</v>
+        <v>521</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>502</v>
+        <v>523</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B17" s="13">
         <v>15.0</v>
@@ -37953,27 +38308,27 @@
         <v>5.0</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>504</v>
+        <v>525</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>505</v>
+        <v>526</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>506</v>
+        <v>527</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B18" s="13">
         <v>16.0</v>
@@ -37985,27 +38340,27 @@
         <v>5.0</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>508</v>
+        <v>529</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>509</v>
+        <v>530</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>510</v>
+        <v>531</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>511</v>
+        <v>532</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>512</v>
+        <v>533</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>513</v>
+        <v>534</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B19" s="13">
         <v>17.0</v>
@@ -38020,56 +38375,56 @@
         <v>151</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>152</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>516</v>
+        <v>537</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>517</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B20" s="13">
         <v>18.0</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>518</v>
+        <v>539</v>
       </c>
       <c r="D20" s="13">
         <v>1.0</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>519</v>
+        <v>540</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>520</v>
+        <v>541</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>521</v>
+        <v>542</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>522</v>
+        <v>543</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>523</v>
+        <v>544</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>524</v>
+        <v>545</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B21" s="13">
         <v>19.0</v>
@@ -38081,27 +38436,27 @@
         <v>2.5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>525</v>
+        <v>546</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>526</v>
+        <v>547</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>527</v>
+        <v>548</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>528</v>
+        <v>549</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>530</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
       <c r="B22" s="13">
         <v>20.0</v>
@@ -38111,16 +38466,16 @@
         <v>20.0</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>531</v>
+        <v>552</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>534</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23">
@@ -43041,26 +43396,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>537</v>
+        <v>558</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>538</v>
+        <v>559</v>
       </c>
       <c r="E1" s="4"/>
       <c r="F1" s="4" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>540</v>
+        <v>561</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>541</v>
+        <v>562</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -45373,7 +45728,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>542</v>
+        <v>563</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
@@ -45382,30 +45737,30 @@
         <v>3</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B2" s="13">
         <v>0.0</v>
@@ -45417,27 +45772,27 @@
         <v>225.0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>544</v>
+        <v>565</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>545</v>
+        <v>566</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>547</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B3" s="13">
         <v>1.0</v>
@@ -45449,27 +45804,27 @@
         <v>4.5</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>548</v>
+        <v>569</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>549</v>
+        <v>570</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>550</v>
+        <v>571</v>
       </c>
       <c r="I3" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>551</v>
+        <v>572</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B4" s="13">
         <v>2.0</v>
@@ -45481,27 +45836,27 @@
         <v>1.5</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>552</v>
+        <v>573</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>553</v>
+        <v>574</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>555</v>
+        <v>576</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B5" s="13">
         <v>3.0</v>
@@ -45513,27 +45868,27 @@
         <v>0.7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>557</v>
+        <v>578</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>558</v>
+        <v>579</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>559</v>
+        <v>580</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>560</v>
+        <v>581</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B6" s="13">
         <v>4.0</v>
@@ -45545,27 +45900,27 @@
         <v>1.5</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>561</v>
+        <v>582</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>562</v>
+        <v>583</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>564</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B7" s="13">
         <v>5.0</v>
@@ -45577,155 +45932,155 @@
         <v>1.5</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>565</v>
+        <v>586</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>567</v>
+        <v>588</v>
       </c>
       <c r="I7" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B8" s="13">
         <v>6.0</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>569</v>
+        <v>590</v>
       </c>
       <c r="D8" s="13">
         <v>45.0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>570</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B9" s="13">
         <v>7.0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="D9" s="13">
         <v>45.0</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>447</v>
+        <v>468</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J9" s="20" t="s">
-        <v>572</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B10" s="13">
         <v>8.0</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
       <c r="D10" s="13">
         <v>4.5</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>573</v>
+        <v>594</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B11" s="13">
         <v>9.0</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
       <c r="D11" s="13">
         <v>4.5</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>596</v>
+      </c>
+      <c r="F11" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="F11" s="22" t="s">
-        <v>446</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>554</v>
-      </c>
       <c r="H11" s="20" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J11" s="22" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B12" s="13">
         <v>10.0</v>
@@ -45737,27 +46092,27 @@
         <v>45.0</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>459</v>
+        <v>480</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>460</v>
+        <v>481</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>462</v>
+        <v>483</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>577</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B13" s="13">
         <v>11.0</v>
@@ -45769,27 +46124,27 @@
         <v>45.0</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>464</v>
+        <v>485</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>465</v>
+        <v>486</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>466</v>
+        <v>487</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>578</v>
+        <v>599</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B14" s="13">
         <v>12.0</v>
@@ -45801,27 +46156,27 @@
         <v>220.0</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>472</v>
+        <v>493</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>474</v>
+        <v>495</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>579</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B15" s="13">
         <v>13.0</v>
@@ -45833,27 +46188,27 @@
         <v>4.5</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>580</v>
+        <v>601</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>475</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B16" s="13">
         <v>14.0</v>
@@ -45865,27 +46220,27 @@
         <v>175.0</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>584</v>
+        <v>605</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>585</v>
+        <v>606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B17" s="13">
         <v>15.0</v>
@@ -45897,27 +46252,27 @@
         <v>265.0</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>586</v>
+        <v>607</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>546</v>
+        <v>567</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>588</v>
+        <v>609</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>589</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B18" s="13">
         <v>16.0</v>
@@ -45929,27 +46284,27 @@
         <v>4.5</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>590</v>
+        <v>611</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>591</v>
+        <v>612</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>592</v>
+        <v>613</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>507</v>
+        <v>528</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B19" s="13">
         <v>17.0</v>
@@ -45961,27 +46316,27 @@
         <v>3.5</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>593</v>
+        <v>614</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>501</v>
+        <v>522</v>
       </c>
       <c r="G19" s="20" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>594</v>
+        <v>615</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>503</v>
+        <v>524</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B20" s="13">
         <v>18.0</v>
@@ -45993,27 +46348,27 @@
         <v>6.5</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>595</v>
+        <v>616</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>477</v>
+        <v>498</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J20" s="23" t="s">
-        <v>479</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B21" s="13">
         <v>19.0</v>
@@ -46025,27 +46380,27 @@
         <v>2.5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>597</v>
+        <v>618</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>598</v>
+        <v>619</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>600</v>
+        <v>621</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="19" t="s">
-        <v>543</v>
+        <v>564</v>
       </c>
       <c r="B22" s="13">
         <v>20.0</v>
@@ -46057,22 +46412,22 @@
         <v>2.5</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>601</v>
+        <v>622</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>497</v>
+        <v>518</v>
       </c>
       <c r="G22" s="20" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>602</v>
+        <v>623</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
       <c r="J22" s="23" t="s">
-        <v>499</v>
+        <v>520</v>
       </c>
     </row>
     <row r="23">
@@ -49038,13 +49393,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>535</v>
+        <v>556</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>536</v>
+        <v>557</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>539</v>
+        <v>560</v>
       </c>
       <c r="E1" s="4"/>
       <c r="G1" s="14"/>
@@ -55092,67 +55447,127 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="20.63"/>
     <col customWidth="1" min="2" max="2" width="8.0"/>
-    <col customWidth="1" min="4" max="4" width="5.5"/>
+    <col customWidth="1" min="4" max="7" width="8.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>624</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>603</v>
+        <v>625</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>626</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>627</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>628</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>604</v>
+        <v>630</v>
       </c>
       <c r="B2" s="13">
         <v>0.0</v>
       </c>
       <c r="C2" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="D2" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="E2" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F2" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="G2" s="25">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="B3" s="13">
         <v>1.0</v>
       </c>
       <c r="C3" s="25">
-        <v>0.0</v>
+        <v>3.0</v>
+      </c>
+      <c r="D3" s="25">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="25">
+        <v>0.07</v>
+      </c>
+      <c r="F3" s="25">
+        <v>0.15</v>
+      </c>
+      <c r="G3" s="25">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>606</v>
+        <v>632</v>
       </c>
       <c r="B4" s="13">
         <v>2.0</v>
       </c>
       <c r="C4" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="E4" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F4" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="G4" s="25">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>160</v>
+        <v>633</v>
       </c>
       <c r="B5" s="13">
         <v>3.0</v>
       </c>
       <c r="C5" s="25">
+        <v>3.0</v>
+      </c>
+      <c r="D5" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="E5" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F5" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="G5" s="25">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="B6" s="13">
         <v>4.0</v>
@@ -55160,83 +55575,74 @@
       <c r="C6" s="25">
         <v>0.0</v>
       </c>
+      <c r="D6" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="E6" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="25">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="25">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>608</v>
-      </c>
-      <c r="B7" s="13">
-        <v>5.0</v>
-      </c>
-      <c r="C7" s="25">
-        <v>0.0</v>
-      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="B8" s="13">
-        <v>6.0</v>
-      </c>
-      <c r="C8" s="25">
-        <v>0.0</v>
-      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="s">
-        <v>610</v>
-      </c>
-      <c r="B9" s="13">
-        <v>7.0</v>
-      </c>
-      <c r="C9" s="25">
-        <v>0.0</v>
-      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="s">
-        <v>611</v>
-      </c>
-      <c r="B10" s="13">
-        <v>8.0</v>
-      </c>
-      <c r="C10" s="25">
-        <v>3.0</v>
-      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="s">
-        <v>612</v>
-      </c>
-      <c r="B11" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="C11" s="25">
-        <v>3.0</v>
-      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B12" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="C12" s="25">
-        <v>3.0</v>
-      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="s">
-        <v>614</v>
-      </c>
-      <c r="B13" s="13">
-        <v>11.0</v>
-      </c>
-      <c r="C13" s="25">
-        <v>3.0</v>
-      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14">
       <c r="B14" s="14"/>
